--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3299082.914949297</v>
+        <v>3296539.128203841</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.3643010698736</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
         <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>123.4058207879611</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.3828147651802</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>158.8439745341462</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.861706085373219</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642708</v>
+        <v>18.19058462642701</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718864</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>237.9941217217125</v>
+        <v>203.2808401762232</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>116.9725659584294</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>178.7818072471471</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>114.6128256968461</v>
       </c>
       <c r="S7" t="n">
-        <v>11.39631491633642</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>259.6580847920594</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>121.7301906704636</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542855</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>199.4095034501334</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634791</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>253.630393765991</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187862</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,13 +2138,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784668</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966049999</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428163</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648957</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>180.0179497934424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710092</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724367</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.98109596683754</v>
+        <v>294.0593731679742</v>
       </c>
       <c r="C2" t="n">
-        <v>40.98109596683754</v>
+        <v>294.0593731679742</v>
       </c>
       <c r="D2" t="n">
-        <v>40.98109596683754</v>
+        <v>294.0593731679742</v>
       </c>
       <c r="E2" t="n">
-        <v>40.98109596683754</v>
+        <v>294.0593731679742</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763407</v>
+        <v>287.1138724187708</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="J2" t="n">
-        <v>49.1599390146734</v>
+        <v>49.15993901467345</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935561</v>
+        <v>141.9970572935563</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959967</v>
+        <v>294.0714735959975</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795972</v>
+        <v>494.9530007795984</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670321</v>
+        <v>703.6988094670336</v>
       </c>
       <c r="O2" t="n">
-        <v>887.476296028894</v>
+        <v>887.4762960288961</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108067</v>
+        <v>1009.825128108069</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060721</v>
+        <v>899.1940867193402</v>
       </c>
       <c r="T2" t="n">
-        <v>839.0921369771751</v>
+        <v>684.7549646357944</v>
       </c>
       <c r="U2" t="n">
-        <v>839.0921369771751</v>
+        <v>560.1026204055306</v>
       </c>
       <c r="V2" t="n">
-        <v>573.0488897396192</v>
+        <v>294.0593731679742</v>
       </c>
       <c r="W2" t="n">
-        <v>573.0488897396192</v>
+        <v>294.0593731679742</v>
       </c>
       <c r="X2" t="n">
-        <v>307.0056425020634</v>
+        <v>294.0593731679742</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.0056425020634</v>
+        <v>294.0593731679742</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>659.181295370217</v>
+        <v>195.5236544623415</v>
       </c>
       <c r="C3" t="n">
-        <v>484.72826608909</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="D3" t="n">
-        <v>335.7938564278387</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5564014223832</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="F3" t="n">
-        <v>30.02184344926818</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121442</v>
+        <v>117.0004092799688</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371039</v>
+        <v>191.5864341124649</v>
       </c>
       <c r="L3" t="n">
-        <v>242.269306043317</v>
+        <v>338.1990901420717</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299032</v>
+        <v>528.6460126286581</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779522</v>
+        <v>738.5421433767075</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760982</v>
+        <v>908.3363012748537</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634663</v>
+        <v>1025.278016062222</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155239</v>
+        <v>1035.156931155241</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155239</v>
+        <v>1035.156931155241</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155239</v>
+        <v>838.3453570153324</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155239</v>
+        <v>610.2094703159433</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.156931155239</v>
+        <v>610.2094703159433</v>
       </c>
       <c r="W3" t="n">
-        <v>1035.156931155239</v>
+        <v>355.9721135877417</v>
       </c>
       <c r="X3" t="n">
-        <v>1035.156931155239</v>
+        <v>355.9721135877417</v>
       </c>
       <c r="Y3" t="n">
-        <v>827.396632390285</v>
+        <v>355.9721135877417</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.1003581759433</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1003581759433</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9837187636075</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940704</v>
+        <v>126.3277805481199</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964355</v>
+        <v>315.7177729964372</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030326</v>
+        <v>526.6665349030344</v>
       </c>
       <c r="N4" t="n">
-        <v>738.03402316701</v>
+        <v>738.0340231670119</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836295</v>
+        <v>917.2498138836315</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097372</v>
+        <v>1047.079201097374</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060721</v>
+        <v>924.7153898972014</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060721</v>
+        <v>717.9193086652626</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060721</v>
+        <v>492.4480544149558</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060721</v>
+        <v>492.4480544149558</v>
       </c>
       <c r="V4" t="n">
-        <v>813.1331563115164</v>
+        <v>287.1138724187708</v>
       </c>
       <c r="W4" t="n">
-        <v>547.0899090739606</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="X4" t="n">
-        <v>319.1003581759433</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="Y4" t="n">
-        <v>319.1003581759433</v>
+        <v>21.07062518121446</v>
       </c>
     </row>
     <row r="5">
@@ -4547,40 +4547,40 @@
         <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>255.7225503044907</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4607,7 +4607,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y5" t="n">
         <v>522.1002068716687</v>
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>510.4865753600648</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>275.3344671283221</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>822.5515116540738</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C7" t="n">
-        <v>653.6153287261669</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>653.6153287261669</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>505.7022351437738</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8122876458634</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008669</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="S7" t="n">
-        <v>1043.344090797604</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="T7" t="n">
-        <v>1043.344090797604</v>
+        <v>939.0849889991096</v>
       </c>
       <c r="U7" t="n">
-        <v>1043.344090797604</v>
+        <v>672.7073324319316</v>
       </c>
       <c r="V7" t="n">
-        <v>1043.344090797604</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W7" t="n">
-        <v>1043.344090797604</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X7" t="n">
-        <v>1043.344090797604</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y7" t="n">
-        <v>822.5515116540738</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829029</v>
+        <v>1709.873294294348</v>
       </c>
       <c r="C8" t="n">
-        <v>690.403225888617</v>
+        <v>1340.910777353936</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818665</v>
+        <v>982.6450787471858</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251367</v>
+        <v>596.8568261489415</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>589.9113253997381</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>174.2065751240269</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130042</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868962</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>1709.873294294348</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507751</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009995</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606941</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783103</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657498</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378429</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255072</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>249.632439243114</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452037</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.03939913952</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959895</v>
+        <v>530.9249843929716</v>
       </c>
     </row>
     <row r="11">
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,16 +5361,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,52 +5744,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280597</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438182</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438182</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,22 +6838,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192832</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7388,64 +7388,64 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877305</v>
+        <v>60.59164343877293</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.10913542307955</v>
+        <v>99.00790724000302</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.89877181692297</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266940975</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>161.6369618910009</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,25 +8535,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>186.4490126143858</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>32.89260457059999</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228839</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719908</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>72.1196935303856</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="K2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.939721005</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909292</v>
+        <v>679702.4124909297</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680943459</v>
+        <v>366.4703680938884</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059438</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642081</v>
+        <v>68912.53318642105</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774272741</v>
+        <v>85.20559774261037</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.6461375698</v>
+        <v>95382.64613756973</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674032</v>
+        <v>253116.547767403</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676994</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181821</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181823</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12386.92018181823</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181823</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12386.92018181817</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12386.92018181814</v>
+      </c>
+      <c r="P4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12386.92018181817</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181814</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181814</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181815</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12386.92018181809</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12386.92018181809</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12386.92018181805</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557687</v>
+        <v>63021.46164557691</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256902.8290260545</v>
+        <v>-256902.8290260546</v>
       </c>
       <c r="C6" t="n">
-        <v>422506.5543981596</v>
+        <v>422506.5543981598</v>
       </c>
       <c r="D6" t="n">
-        <v>112124.4993643665</v>
+        <v>112124.4993643671</v>
       </c>
       <c r="E6" t="n">
-        <v>105437.0480907344</v>
+        <v>105402.3101652984</v>
       </c>
       <c r="F6" t="n">
-        <v>612922.4897152801</v>
+        <v>612887.7517898442</v>
       </c>
       <c r="G6" t="n">
-        <v>612922.4897152801</v>
+        <v>612887.7517898447</v>
       </c>
       <c r="H6" t="n">
-        <v>612922.4897152799</v>
+        <v>612887.7517898447</v>
       </c>
       <c r="I6" t="n">
-        <v>612922.4897152801</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="J6" t="n">
-        <v>544009.9565288592</v>
+        <v>543975.2186034233</v>
       </c>
       <c r="K6" t="n">
-        <v>612837.2841175372</v>
+        <v>612802.5461921018</v>
       </c>
       <c r="L6" t="n">
-        <v>517539.84357771</v>
+        <v>517505.105652275</v>
       </c>
       <c r="M6" t="n">
-        <v>480315.1959863536</v>
+        <v>480280.458060918</v>
       </c>
       <c r="N6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="O6" t="n">
-        <v>612922.48971528</v>
+        <v>612887.7517898446</v>
       </c>
       <c r="P6" t="n">
-        <v>612922.4897152798</v>
+        <v>612887.7517898445</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.770023296051</v>
+        <v>613.7700232960515</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26753,7 +26753,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.770023296051</v>
+        <v>613.7700232960515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734272286</v>
+        <v>0.2849904734268875</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480612</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363259123</v>
+        <v>0.3310652363254576</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996088</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.382814765181</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363259123</v>
+        <v>0.3310652363254576</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363259123</v>
+        <v>0.3310652363254576</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996088</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.369540593607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.4525055708747</v>
       </c>
       <c r="H2" t="n">
         <v>314.2053659305182</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>127.742438745549</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495468</v>
+        <v>64.36944370495416</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.3482859132888</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>7.689209115721127</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>127.1616264994271</v>
+        <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>99.48524054500679</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807545</v>
+        <v>43.94290942807541</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825658</v>
+        <v>15.10853304825652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>14.1435216021155</v>
+        <v>48.85680314760481</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357141077</v>
+        <v>23.14018357141026</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>295.8616086872806</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>47.07268025640749</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>12.89177718681785</v>
       </c>
       <c r="S7" t="n">
-        <v>193.3228493272573</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802024</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>179.2883618919418</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193756</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>19.17514990196136</v>
       </c>
     </row>
     <row r="11">
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28327,16 +28327,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28375,22 +28375,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.868909745143369e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,16 +28612,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28858,13 +28858,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-5.729124313443118e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30694,10 +30694,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4674171790796</v>
+        <v>2.467417179079602</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524896</v>
+        <v>25.26943618524898</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646638</v>
+        <v>95.12510079646646</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029074</v>
+        <v>209.4189488029076</v>
       </c>
       <c r="K2" t="n">
-        <v>313.864717993347</v>
+        <v>313.8647179933472</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876043</v>
+        <v>389.3769364876046</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460612</v>
+        <v>433.2568667460615</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061211</v>
+        <v>440.2674158061214</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316483</v>
+        <v>415.7320362316486</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231206</v>
+        <v>354.8176746231209</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973323</v>
+        <v>266.4532968973326</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753591</v>
+        <v>154.9938943753592</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827644</v>
+        <v>56.22626896827649</v>
       </c>
       <c r="T2" t="n">
         <v>10.80111870142096</v>
       </c>
       <c r="U2" t="n">
-        <v>0.197393374326368</v>
+        <v>0.1973933743263681</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410374</v>
+        <v>1.320184578410375</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148967</v>
+        <v>12.75020369148968</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333963</v>
+        <v>45.45372342333967</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435871</v>
+        <v>124.7284912435872</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970822</v>
+        <v>213.1808579970823</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289718</v>
+        <v>286.647971728972</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963477</v>
+        <v>334.504662696348</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682314</v>
+        <v>343.3580057682317</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466121</v>
+        <v>314.1054948466123</v>
       </c>
       <c r="P3" t="n">
-        <v>252.097351643995</v>
+        <v>252.0973516439952</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774365</v>
+        <v>168.5204033774367</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621605</v>
+        <v>81.96724952621612</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564881</v>
+        <v>24.52184951564884</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311988</v>
+        <v>5.321270296311992</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962989</v>
+        <v>0.08685424857962996</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.106798402665011</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058005</v>
+        <v>9.840443980058012</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923504</v>
+        <v>33.28444650923506</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2506470684162</v>
+        <v>78.25064706841626</v>
       </c>
       <c r="K4" t="n">
         <v>128.589850782353</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653052</v>
+        <v>164.5507370653054</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195706</v>
+        <v>173.4956805195707</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187284</v>
+        <v>169.3703410187285</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148689</v>
+        <v>156.440923314869</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.8622359005027</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770371</v>
+        <v>92.67927351770378</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528307</v>
+        <v>49.76568090528311</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735294</v>
+        <v>19.28847761735295</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477769</v>
+        <v>4.729047720477772</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354607</v>
+        <v>0.06037082196354611</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,34 +31513,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32081,19 +32081,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>194.5189324111259</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,34 +32552,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471751</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32792,31 +32792,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>324.543364734074</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622112</v>
+        <v>28.37304427622129</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836642</v>
+        <v>93.77486694836665</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176171</v>
+        <v>153.6105215176174</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187884</v>
+        <v>202.9106335187887</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095302</v>
+        <v>210.8543522095305</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099616</v>
+        <v>185.6338248099619</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678511</v>
+        <v>123.5846788678514</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288285</v>
+        <v>44.14760702288308</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.89877181692357</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272321</v>
+        <v>75.33941902272335</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490976</v>
+        <v>148.0935919490978</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743294</v>
+        <v>192.3706287743297</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848981</v>
+        <v>212.0162936848984</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021677</v>
+        <v>171.5092504021679</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296648</v>
+        <v>118.122944229665</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.437401108338</v>
+        <v>28.53862929141513</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059151</v>
+        <v>106.3203589564702</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256214</v>
+        <v>191.303022675068</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814112</v>
+        <v>213.0795574814113</v>
       </c>
       <c r="N4" t="n">
-        <v>213.502513397957</v>
+        <v>213.5025133979571</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289086</v>
+        <v>181.0260512289087</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653961</v>
+        <v>131.1407951653962</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009321</v>
+        <v>6.517230266009392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>484.1293732522361</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>55.9645526312517</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281608</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.4093308120557</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>82.88662398579325</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
